--- a/ExternalResource/SpawnPatternDataBase.xlsx
+++ b/ExternalResource/SpawnPatternDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lostwaltz\OneDrive\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1CA63-F656-4D7D-A47F-C5468D8CC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EBFF6-DAE8-4176-BD1E-605688DAD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3A60F869-779F-45C5-87AF-37B5B178CB19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EntityColorArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 1, 2, 3, 4, 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,14 @@
   </si>
   <si>
     <t>SpawnIndexArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityColorKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000, 100001, 100002, 100003, 100004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +495,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,7 +504,7 @@
     <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="41.75" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="51.125" customWidth="1"/>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -563,19 +567,19 @@
         <v>100000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -590,19 +594,19 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -617,19 +621,19 @@
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>

--- a/ExternalResource/SpawnPatternDataBase.xlsx
+++ b/ExternalResource/SpawnPatternDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lostwaltz\OneDrive\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EBFF6-DAE8-4176-BD1E-605688DAD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25A3404-A87E-4C40-B580-3BD04917D72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3A60F869-779F-45C5-87AF-37B5B178CB19}"/>
   </bookViews>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000000, 1000000, 1000000, 1000000, 1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnDelayArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 1, 2, 3, 4, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 0.5, 0.5, 0.5, 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +94,14 @@
   </si>
   <si>
     <t>100000, 100001, 100002, 100003, 100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000, 100000, 100000, 100000, 100000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -567,19 +567,19 @@
         <v>100000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -594,19 +594,19 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -621,19 +621,19 @@
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
